--- a/biology/Médecine/Archibald_Edward_Garrod/Archibald_Edward_Garrod.xlsx
+++ b/biology/Médecine/Archibald_Edward_Garrod/Archibald_Edward_Garrod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archibald Edward Garrod, né le 25 novembre 1857 à Londres et mort le 28 mars 1936 à Cambridge, est un médecin britannique. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie l'alcaptonurie, une maladie rendant les urines noirâtres. Il découvre qu'elle est due à un déficit d'une enzyme dans les voies azotées et qu'elle est héréditaire (récessive). Il établit ainsi la première relation entre un gène et une enzyme en 1902.
 Archibald Edward Garrod est devenu membre de la Royal Society le 5 mai 1910. Il est fait chevalier commandeur de l'ordre de Saint-Michel et Saint-Georges en 1918.
